--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Affle India Ltd/Pruned_Excel/Final_Parameters/Affle India Ltd_Cleaned_Data_Updated.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Affle India Ltd/Pruned_Excel/Final_Parameters/Affle India Ltd_Cleaned_Data_Updated.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="116">
   <si>
     <t>Balance Sheet of Affle India(in Rs. Cr.)</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>P/l before exceptional items &amp; tax</t>
+  </si>
+  <si>
+    <t>Exceptional items</t>
   </si>
   <si>
     <t>P/l before tax</t>
@@ -2277,13 +2280,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -2344,10 +2347,13 @@
       <c r="T1" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>34.74</v>
@@ -2379,23 +2385,20 @@
       <c r="K2">
         <v>8.800000000000001</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>8.800000000000001</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2.62</v>
-      </c>
-      <c r="N2">
-        <v>6.18</v>
       </c>
       <c r="O2">
         <v>6.18</v>
       </c>
       <c r="P2">
+        <v>6.18</v>
+      </c>
+      <c r="Q2">
         <v>24.29</v>
-      </c>
-      <c r="Q2">
-        <v>2.55</v>
       </c>
       <c r="R2">
         <v>2.55</v>
@@ -2406,10 +2409,13 @@
       <c r="T2">
         <v>2.55</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>27.53</v>
@@ -2441,23 +2447,20 @@
       <c r="K3">
         <v>5.31</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>5.31</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1.38</v>
-      </c>
-      <c r="N3">
-        <v>3.93</v>
       </c>
       <c r="O3">
         <v>3.93</v>
       </c>
       <c r="P3">
+        <v>3.93</v>
+      </c>
+      <c r="Q3">
         <v>24.29</v>
-      </c>
-      <c r="Q3">
-        <v>1.62</v>
       </c>
       <c r="R3">
         <v>1.62</v>
@@ -2468,10 +2471,13 @@
       <c r="T3">
         <v>1.62</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>49.23</v>
@@ -2503,23 +2509,20 @@
       <c r="K4">
         <v>11.76</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>11.76</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2.95</v>
-      </c>
-      <c r="N4">
-        <v>8.81</v>
       </c>
       <c r="O4">
         <v>8.81</v>
       </c>
       <c r="P4">
+        <v>8.81</v>
+      </c>
+      <c r="Q4">
         <v>25.5</v>
-      </c>
-      <c r="Q4">
-        <v>3.57</v>
       </c>
       <c r="R4">
         <v>3.57</v>
@@ -2530,10 +2533,13 @@
       <c r="T4">
         <v>3.57</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>30.41</v>
@@ -2565,34 +2571,34 @@
       <c r="K5">
         <v>8.27</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>8.27</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2.05</v>
-      </c>
-      <c r="N5">
-        <v>6.22</v>
       </c>
       <c r="O5">
         <v>6.22</v>
       </c>
       <c r="P5">
+        <v>6.22</v>
+      </c>
+      <c r="Q5">
         <v>24.29</v>
-      </c>
-      <c r="Q5">
-        <v>2.56</v>
       </c>
       <c r="R5">
         <v>2.56</v>
       </c>
-      <c r="T5">
+      <c r="S5">
         <v>2.56</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>29.84</v>
@@ -2624,25 +2630,25 @@
       <c r="K6">
         <v>6.02</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>6.02</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1.78</v>
-      </c>
-      <c r="N6">
-        <v>4.25</v>
       </c>
       <c r="O6">
         <v>4.25</v>
       </c>
       <c r="P6">
+        <v>4.25</v>
+      </c>
+      <c r="Q6">
         <v>24.29</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>53.04</v>
@@ -2674,23 +2680,20 @@
       <c r="K7">
         <v>14.81</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>14.81</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>3.73</v>
-      </c>
-      <c r="N7">
-        <v>11.08</v>
       </c>
       <c r="O7">
         <v>11.08</v>
       </c>
       <c r="P7">
+        <v>11.08</v>
+      </c>
+      <c r="Q7">
         <v>25.5</v>
-      </c>
-      <c r="Q7">
-        <v>4.44</v>
       </c>
       <c r="R7">
         <v>4.44</v>
@@ -2701,10 +2704,13 @@
       <c r="T7">
         <v>4.44</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7">
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8">
         <v>78.31999999999999</v>
@@ -2736,23 +2742,20 @@
       <c r="K8">
         <v>9</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>9</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2.31</v>
-      </c>
-      <c r="N8">
-        <v>6.69</v>
       </c>
       <c r="O8">
         <v>6.69</v>
       </c>
       <c r="P8">
+        <v>6.69</v>
+      </c>
+      <c r="Q8">
         <v>25.5</v>
-      </c>
-      <c r="Q8">
-        <v>2.62</v>
       </c>
       <c r="R8">
         <v>2.62</v>
@@ -2763,10 +2766,13 @@
       <c r="T8">
         <v>2.62</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9">
         <v>72.65000000000001</v>
@@ -2798,23 +2804,20 @@
       <c r="K9">
         <v>9.779999999999999</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>9.779999999999999</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>2.5</v>
-      </c>
-      <c r="N9">
-        <v>7.29</v>
       </c>
       <c r="O9">
         <v>7.29</v>
       </c>
       <c r="P9">
+        <v>7.29</v>
+      </c>
+      <c r="Q9">
         <v>25.5</v>
-      </c>
-      <c r="Q9">
-        <v>2.86</v>
       </c>
       <c r="R9">
         <v>2.86</v>
@@ -2825,10 +2828,13 @@
       <c r="T9">
         <v>2.86</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>42.26</v>
@@ -2860,23 +2866,20 @@
       <c r="K10">
         <v>4.8</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>4.8</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1.24</v>
-      </c>
-      <c r="N10">
-        <v>3.56</v>
       </c>
       <c r="O10">
         <v>3.56</v>
       </c>
       <c r="P10">
+        <v>3.56</v>
+      </c>
+      <c r="Q10">
         <v>25.5</v>
-      </c>
-      <c r="Q10">
-        <v>1.4</v>
       </c>
       <c r="R10">
         <v>1.4</v>
@@ -2887,10 +2890,13 @@
       <c r="T10">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11">
         <v>43.39</v>
@@ -2922,23 +2928,20 @@
       <c r="K11">
         <v>9.18</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>9.18</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>2.4</v>
-      </c>
-      <c r="N11">
-        <v>6.78</v>
       </c>
       <c r="O11">
         <v>6.78</v>
       </c>
       <c r="P11">
+        <v>6.78</v>
+      </c>
+      <c r="Q11">
         <v>25.5</v>
-      </c>
-      <c r="Q11">
-        <v>2.7</v>
       </c>
       <c r="R11">
         <v>2.7</v>
@@ -2949,10 +2952,13 @@
       <c r="T11">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12">
         <v>111.27</v>
@@ -2984,23 +2990,20 @@
       <c r="K12">
         <v>17.4</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>17.4</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>4.93</v>
-      </c>
-      <c r="N12">
-        <v>12.47</v>
       </c>
       <c r="O12">
         <v>12.47</v>
       </c>
       <c r="P12">
+        <v>12.47</v>
+      </c>
+      <c r="Q12">
         <v>26.65</v>
-      </c>
-      <c r="Q12">
-        <v>0.9399999999999999</v>
       </c>
       <c r="R12">
         <v>0.9399999999999999</v>
@@ -3011,10 +3014,13 @@
       <c r="T12">
         <v>0.9399999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13">
         <v>95.97</v>
@@ -3046,23 +3052,20 @@
       <c r="K13">
         <v>20.93</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>20.93</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>5.1</v>
-      </c>
-      <c r="N13">
-        <v>15.83</v>
       </c>
       <c r="O13">
         <v>15.83</v>
       </c>
       <c r="P13">
+        <v>15.83</v>
+      </c>
+      <c r="Q13">
         <v>26.65</v>
-      </c>
-      <c r="Q13">
-        <v>5.99</v>
       </c>
       <c r="R13">
         <v>5.99</v>
@@ -3073,10 +3076,13 @@
       <c r="T13">
         <v>5.99</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14">
         <v>81.84999999999999</v>
@@ -3108,23 +3114,20 @@
       <c r="K14">
         <v>19.1</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>19.1</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>4.18</v>
-      </c>
-      <c r="N14">
-        <v>14.91</v>
       </c>
       <c r="O14">
         <v>14.91</v>
       </c>
       <c r="P14">
+        <v>14.91</v>
+      </c>
+      <c r="Q14">
         <v>26.65</v>
-      </c>
-      <c r="Q14">
-        <v>5.68</v>
       </c>
       <c r="R14">
         <v>5.68</v>
@@ -3135,10 +3138,13 @@
       <c r="T14">
         <v>5.68</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15">
         <v>72.23</v>
@@ -3170,23 +3176,20 @@
       <c r="K15">
         <v>15.98</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>15.98</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>5.29</v>
-      </c>
-      <c r="N15">
-        <v>10.69</v>
       </c>
       <c r="O15">
         <v>10.69</v>
       </c>
       <c r="P15">
+        <v>10.69</v>
+      </c>
+      <c r="Q15">
         <v>25.5</v>
-      </c>
-      <c r="Q15">
-        <v>4.19</v>
       </c>
       <c r="R15">
         <v>4.19</v>
@@ -3197,10 +3200,13 @@
       <c r="T15">
         <v>4.19</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16">
         <v>108.44</v>
@@ -3232,23 +3238,20 @@
       <c r="K16">
         <v>18.4</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>18.4</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>5.06</v>
-      </c>
-      <c r="N16">
-        <v>13.34</v>
       </c>
       <c r="O16">
         <v>13.34</v>
       </c>
       <c r="P16">
+        <v>13.34</v>
+      </c>
+      <c r="Q16">
         <v>26.65</v>
-      </c>
-      <c r="Q16">
-        <v>1.01</v>
       </c>
       <c r="R16">
         <v>1.01</v>
@@ -3259,10 +3262,13 @@
       <c r="T16">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B17">
         <v>137.27</v>
@@ -3294,23 +3300,20 @@
       <c r="K17">
         <v>28.73</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>28.73</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>7.25</v>
-      </c>
-      <c r="N17">
-        <v>21.48</v>
       </c>
       <c r="O17">
         <v>21.48</v>
       </c>
       <c r="P17">
+        <v>21.48</v>
+      </c>
+      <c r="Q17">
         <v>26.64</v>
-      </c>
-      <c r="Q17">
-        <v>1.61</v>
       </c>
       <c r="R17">
         <v>1.61</v>
@@ -3321,10 +3324,13 @@
       <c r="T17">
         <v>1.61</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B18">
         <v>115.86</v>
@@ -3356,23 +3362,20 @@
       <c r="K18">
         <v>19.99</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>19.99</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>5.18</v>
-      </c>
-      <c r="N18">
-        <v>14.81</v>
       </c>
       <c r="O18">
         <v>14.81</v>
       </c>
       <c r="P18">
+        <v>14.81</v>
+      </c>
+      <c r="Q18">
         <v>26.64</v>
-      </c>
-      <c r="Q18">
-        <v>1.11</v>
       </c>
       <c r="R18">
         <v>1.11</v>
@@ -3383,10 +3386,13 @@
       <c r="T18">
         <v>1.11</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19">
         <v>105.16</v>
@@ -3418,23 +3424,20 @@
       <c r="K19">
         <v>14.09</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>14.09</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>3.81</v>
-      </c>
-      <c r="N19">
-        <v>10.29</v>
       </c>
       <c r="O19">
         <v>10.29</v>
       </c>
       <c r="P19">
+        <v>10.29</v>
+      </c>
+      <c r="Q19">
         <v>26.64</v>
-      </c>
-      <c r="Q19">
-        <v>0.77</v>
       </c>
       <c r="R19">
         <v>0.77</v>
@@ -3445,10 +3448,13 @@
       <c r="T19">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20">
         <v>137.13</v>
@@ -3480,23 +3486,20 @@
       <c r="K20">
         <v>20.93</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>20.93</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>5.35</v>
-      </c>
-      <c r="N20">
-        <v>15.58</v>
       </c>
       <c r="O20">
         <v>15.58</v>
       </c>
       <c r="P20">
+        <v>15.58</v>
+      </c>
+      <c r="Q20">
         <v>26.64</v>
-      </c>
-      <c r="Q20">
-        <v>1.17</v>
       </c>
       <c r="R20">
         <v>1.17</v>
@@ -3507,10 +3510,13 @@
       <c r="T20">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21">
         <v>136.5</v>
@@ -3542,23 +3548,20 @@
       <c r="K21">
         <v>27.23</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>27.23</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>6.92</v>
-      </c>
-      <c r="N21">
-        <v>20.31</v>
       </c>
       <c r="O21">
         <v>20.31</v>
       </c>
       <c r="P21">
+        <v>20.31</v>
+      </c>
+      <c r="Q21">
         <v>26.64</v>
-      </c>
-      <c r="Q21">
-        <v>1.52</v>
       </c>
       <c r="R21">
         <v>1.52</v>
@@ -3569,10 +3572,13 @@
       <c r="T21">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B22">
         <v>139.32</v>
@@ -3604,23 +3610,20 @@
       <c r="K22">
         <v>24.86</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>24.86</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>6.35</v>
-      </c>
-      <c r="N22">
-        <v>18.51</v>
       </c>
       <c r="O22">
         <v>18.51</v>
       </c>
       <c r="P22">
+        <v>18.51</v>
+      </c>
+      <c r="Q22">
         <v>28.02</v>
-      </c>
-      <c r="Q22">
-        <v>1.38</v>
       </c>
       <c r="R22">
         <v>1.38</v>
@@ -3631,10 +3634,13 @@
       <c r="T22">
         <v>1.38</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B23">
         <v>133.83</v>
@@ -3666,23 +3672,20 @@
       <c r="K23">
         <v>24.39</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>24.39</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>6.22</v>
-      </c>
-      <c r="N23">
-        <v>18.17</v>
       </c>
       <c r="O23">
         <v>18.17</v>
       </c>
       <c r="P23">
+        <v>18.17</v>
+      </c>
+      <c r="Q23">
         <v>26.64</v>
-      </c>
-      <c r="Q23">
-        <v>1.36</v>
       </c>
       <c r="R23">
         <v>1.36</v>
@@ -3693,10 +3696,13 @@
       <c r="T23">
         <v>1.36</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B24">
         <v>176.1</v>
@@ -3728,23 +3734,20 @@
       <c r="K24">
         <v>36.39</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>36.39</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>9.16</v>
-      </c>
-      <c r="N24">
-        <v>27.23</v>
       </c>
       <c r="O24">
         <v>27.23</v>
       </c>
       <c r="P24">
+        <v>27.23</v>
+      </c>
+      <c r="Q24">
         <v>28.04</v>
-      </c>
-      <c r="Q24">
-        <v>1.94</v>
       </c>
       <c r="R24">
         <v>1.94</v>
@@ -3755,10 +3758,13 @@
       <c r="T24">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B25">
         <v>163.15</v>
@@ -3790,23 +3796,20 @@
       <c r="K25">
         <v>37.95</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>37.95</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>9.779999999999999</v>
-      </c>
-      <c r="N25">
-        <v>28.17</v>
       </c>
       <c r="O25">
         <v>28.17</v>
       </c>
       <c r="P25">
+        <v>28.17</v>
+      </c>
+      <c r="Q25">
         <v>28.03</v>
-      </c>
-      <c r="Q25">
-        <v>2.01</v>
       </c>
       <c r="R25">
         <v>2.01</v>
@@ -3817,10 +3820,13 @@
       <c r="T25">
         <v>2.01</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B26">
         <v>155.72</v>
@@ -3852,23 +3858,20 @@
       <c r="K26">
         <v>31.48</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>31.48</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>7.78</v>
-      </c>
-      <c r="N26">
-        <v>23.69</v>
       </c>
       <c r="O26">
         <v>23.69</v>
       </c>
       <c r="P26">
+        <v>23.69</v>
+      </c>
+      <c r="Q26">
         <v>28.02</v>
-      </c>
-      <c r="Q26">
-        <v>1.75</v>
       </c>
       <c r="R26">
         <v>1.75</v>
@@ -3877,6 +3880,9 @@
         <v>1.75</v>
       </c>
       <c r="T26">
+        <v>1.75</v>
+      </c>
+      <c r="U26">
         <v>1.75</v>
       </c>
     </row>
@@ -3895,58 +3901,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:18">
